--- a/data/trans_orig/P24E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>36899</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26820</v>
+        <v>27378</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47143</v>
+        <v>46969</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3119710464037189</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2267518289195994</v>
+        <v>0.2314732248710382</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3985816714935926</v>
+        <v>0.3971086875779474</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -764,19 +764,19 @@
         <v>23817</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16725</v>
+        <v>16562</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31461</v>
+        <v>31651</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4288537543803566</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3011594537439397</v>
+        <v>0.2982176030133462</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5664939511792432</v>
+        <v>0.5699168238977672</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -785,19 +785,19 @@
         <v>60717</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48608</v>
+        <v>49067</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73011</v>
+        <v>72757</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3493173927624587</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2796526400271768</v>
+        <v>0.2822935826201058</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4200506916544058</v>
+        <v>0.4185859678310458</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>56522</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45720</v>
+        <v>46019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68085</v>
+        <v>67781</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4778724988957864</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3865502779360224</v>
+        <v>0.3890770196898094</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5756337191501661</v>
+        <v>0.5730678923494782</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -835,19 +835,19 @@
         <v>27048</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19482</v>
+        <v>19499</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34801</v>
+        <v>34427</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4870197257376732</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3507994785478465</v>
+        <v>0.3511079009764395</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6266362317806895</v>
+        <v>0.6198931150832949</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>82</v>
@@ -856,19 +856,19 @@
         <v>83569</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>71120</v>
+        <v>71039</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96626</v>
+        <v>95988</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4807952195254911</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4091703683896163</v>
+        <v>0.4087021766680467</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5559115130123603</v>
+        <v>0.5522438465603431</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>24857</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16638</v>
+        <v>17422</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35091</v>
+        <v>34346</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2101564547004947</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1406706096199462</v>
+        <v>0.1472954116493779</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2966808331146115</v>
+        <v>0.2903866170815287</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -906,19 +906,19 @@
         <v>4672</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1798</v>
+        <v>1752</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10429</v>
+        <v>10257</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08412651988197017</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03236628090661734</v>
+        <v>0.03154439419447704</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1877810901761145</v>
+        <v>0.1846962945081707</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -927,19 +927,19 @@
         <v>29529</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21573</v>
+        <v>20453</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39848</v>
+        <v>39438</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1698873877120502</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1241150779601259</v>
+        <v>0.1176698004681026</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.229254989675876</v>
+        <v>0.2268945993817513</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>73623</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>60092</v>
+        <v>60687</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>88410</v>
+        <v>89863</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3260365518008395</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2661150456990962</v>
+        <v>0.2687467085030723</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3915168500919745</v>
+        <v>0.3979538782134037</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>57</v>
@@ -1052,19 +1052,19 @@
         <v>60022</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48582</v>
+        <v>46005</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>73721</v>
+        <v>73076</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3183421684999831</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2576657483355952</v>
+        <v>0.2440007014781618</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3910000157912556</v>
+        <v>0.3875797912444766</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>128</v>
@@ -1073,19 +1073,19 @@
         <v>133645</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>115595</v>
+        <v>113256</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>153270</v>
+        <v>153697</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3225353839012784</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2789731700756558</v>
+        <v>0.2733291406508647</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3698977540752513</v>
+        <v>0.3709273140328641</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>123869</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>108167</v>
+        <v>109967</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>138532</v>
+        <v>137749</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5485486666573584</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4790107376942321</v>
+        <v>0.4869846775997655</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6134800257548721</v>
+        <v>0.6100144448997187</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>98</v>
@@ -1123,19 +1123,19 @@
         <v>99168</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>85368</v>
+        <v>85802</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>113153</v>
+        <v>114807</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5259642296558089</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4527747152014644</v>
+        <v>0.4550736484291257</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6001358347907467</v>
+        <v>0.6089128293778424</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>218</v>
@@ -1144,19 +1144,19 @@
         <v>223037</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>203423</v>
+        <v>202777</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>243074</v>
+        <v>242355</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5382720918146828</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.490935081005931</v>
+        <v>0.4893773113047234</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5866283215426553</v>
+        <v>0.5848924054913931</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>28320</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19495</v>
+        <v>19670</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39432</v>
+        <v>39813</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1254147815418021</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0863327954270402</v>
+        <v>0.08710889692983767</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1746245312507791</v>
+        <v>0.1763087464918376</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1194,19 +1194,19 @@
         <v>29355</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19173</v>
+        <v>20222</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39282</v>
+        <v>40668</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1556936018442079</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1016903843417503</v>
+        <v>0.1072510769160896</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2083407417651614</v>
+        <v>0.2156928627507468</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -1215,19 +1215,19 @@
         <v>57676</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44940</v>
+        <v>44525</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73357</v>
+        <v>72943</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1391925242840387</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1084577015689399</v>
+        <v>0.1074560955821703</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.177036587712171</v>
+        <v>0.1760378738938622</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>23244</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15137</v>
+        <v>15608</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32277</v>
+        <v>31722</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3562987863468785</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2320370568180427</v>
+        <v>0.23925195021992</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4947640249924417</v>
+        <v>0.4862530305321895</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -1340,19 +1340,19 @@
         <v>25657</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18298</v>
+        <v>17959</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32688</v>
+        <v>32852</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4941700593088312</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3524337013968069</v>
+        <v>0.3459109639254963</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6295984867959196</v>
+        <v>0.6327567066211722</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>46</v>
@@ -1361,19 +1361,19 @@
         <v>48901</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>37520</v>
+        <v>38642</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>60042</v>
+        <v>59715</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4173979067422376</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3202557714590589</v>
+        <v>0.3298344653849015</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5124944382645301</v>
+        <v>0.5097020118895056</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>37958</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28957</v>
+        <v>28399</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46120</v>
+        <v>45587</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5818457891944245</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4438683482102206</v>
+        <v>0.43532377103528</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7069557782719231</v>
+        <v>0.6987895684386536</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1411,19 +1411,19 @@
         <v>16869</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10330</v>
+        <v>10570</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23900</v>
+        <v>24173</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3249020304400163</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1989688423624675</v>
+        <v>0.2035816593482676</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.460334153398558</v>
+        <v>0.4655844999298284</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -1432,19 +1432,19 @@
         <v>54826</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43643</v>
+        <v>44317</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66110</v>
+        <v>65931</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4679784307976972</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3725219606438101</v>
+        <v>0.3782751745102778</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5642866269025608</v>
+        <v>0.5627591027811397</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>4035</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1044</v>
+        <v>1112</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10077</v>
+        <v>10515</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06185542445869693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01600473845116165</v>
+        <v>0.01704226395124743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1544656657423953</v>
+        <v>0.1611811287837437</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1482,19 +1482,19 @@
         <v>9394</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4385</v>
+        <v>4393</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16234</v>
+        <v>17744</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1809279102511525</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08446602313668584</v>
+        <v>0.08461480388293643</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3126873144706156</v>
+        <v>0.3417580343614376</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1503,19 +1503,19 @@
         <v>13429</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7289</v>
+        <v>7212</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22954</v>
+        <v>22549</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1146236624600652</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06221979707612819</v>
+        <v>0.06155649333893908</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1959245508730423</v>
+        <v>0.1924722626971087</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>133766</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>114358</v>
+        <v>117055</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>153228</v>
+        <v>154299</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3267953291188058</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2793801995965309</v>
+        <v>0.285969536936904</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3743404287150507</v>
+        <v>0.3769575226624368</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>104</v>
@@ -1628,19 +1628,19 @@
         <v>109496</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>93765</v>
+        <v>93438</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>126556</v>
+        <v>127155</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3699174464311785</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3167721727783087</v>
+        <v>0.3156651225304464</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.427552435019493</v>
+        <v>0.4295734753210846</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>233</v>
@@ -1649,19 +1649,19 @@
         <v>243263</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>219459</v>
+        <v>215940</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>267978</v>
+        <v>268421</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3448921286804566</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3111435896595147</v>
+        <v>0.3061546972233561</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3799330488566386</v>
+        <v>0.3805612752713329</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>218349</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>197952</v>
+        <v>198554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>237980</v>
+        <v>238363</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5334331431278327</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4836022829528197</v>
+        <v>0.485073901592554</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5813922785524207</v>
+        <v>0.5823282495542014</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>141</v>
@@ -1699,19 +1699,19 @@
         <v>143085</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>126631</v>
+        <v>127650</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>162609</v>
+        <v>161263</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4833906273413048</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4278059427603758</v>
+        <v>0.4312474600113824</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.549350940204441</v>
+        <v>0.5448048634894723</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>352</v>
@@ -1720,19 +1720,19 @@
         <v>361434</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>336126</v>
+        <v>335616</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>388097</v>
+        <v>390486</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5124321015697527</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4765509706758362</v>
+        <v>0.4758289991410493</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5502349491889814</v>
+        <v>0.5536221714144495</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>57212</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>44049</v>
+        <v>42870</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>73089</v>
+        <v>71848</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1397715277533616</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1076125568381665</v>
+        <v>0.1047337071628688</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1785591125203173</v>
+        <v>0.1755263075971692</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>42</v>
@@ -1770,19 +1770,19 @@
         <v>43421</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31915</v>
+        <v>32754</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56856</v>
+        <v>57030</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1466919262275166</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1078200847224752</v>
+        <v>0.1106534879474283</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1920801487515522</v>
+        <v>0.1926676151804067</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>99</v>
@@ -1791,19 +1791,19 @@
         <v>100634</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>84572</v>
+        <v>81974</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>119735</v>
+        <v>119573</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1426757697497907</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1199040877704737</v>
+        <v>0.1162203071023862</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1697572062908385</v>
+        <v>0.1695283327798379</v>
       </c>
     </row>
     <row r="19">
@@ -2134,19 +2134,19 @@
         <v>59143</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45654</v>
+        <v>47943</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71132</v>
+        <v>72629</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3934161507766574</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3036860035942011</v>
+        <v>0.3189155176446277</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4731655537827714</v>
+        <v>0.4831252292545132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -2155,19 +2155,19 @@
         <v>45383</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35265</v>
+        <v>35250</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55084</v>
+        <v>56879</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4503930959838056</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3499732809554382</v>
+        <v>0.3498268243656196</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.546667191997036</v>
+        <v>0.5644804818382265</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>97</v>
@@ -2176,19 +2176,19 @@
         <v>104526</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88815</v>
+        <v>87714</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>121029</v>
+        <v>120590</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4162807404378867</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3537101993761575</v>
+        <v>0.349325712790629</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4820048149799939</v>
+        <v>0.4802551152157792</v>
       </c>
     </row>
     <row r="5">
@@ -2205,19 +2205,19 @@
         <v>69848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56627</v>
+        <v>57379</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82340</v>
+        <v>83048</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4646257715973351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.37668269265339</v>
+        <v>0.3816794978883434</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5477218268132004</v>
+        <v>0.5524304471367771</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -2226,19 +2226,19 @@
         <v>43599</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34726</v>
+        <v>32280</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53408</v>
+        <v>52867</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4326840635107775</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3446223150883415</v>
+        <v>0.32034917265299</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5300317664156892</v>
+        <v>0.5246617487640456</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>107</v>
@@ -2247,19 +2247,19 @@
         <v>113447</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>97294</v>
+        <v>97817</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>130919</v>
+        <v>130366</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4518077090314557</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3874783365289498</v>
+        <v>0.3895607914645108</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5213903230696114</v>
+        <v>0.5191868337435046</v>
       </c>
     </row>
     <row r="6">
@@ -2276,19 +2276,19 @@
         <v>21341</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13281</v>
+        <v>13053</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31177</v>
+        <v>32641</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1419580776260075</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08834420215447777</v>
+        <v>0.08683039374277247</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2073901954070661</v>
+        <v>0.2171286281638566</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -2297,19 +2297,19 @@
         <v>11782</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5970</v>
+        <v>6029</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19358</v>
+        <v>19382</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.116922840505417</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05924604671123819</v>
+        <v>0.05983609577057989</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1921109369290765</v>
+        <v>0.1923462882414171</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -2318,19 +2318,19 @@
         <v>33122</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22675</v>
+        <v>22612</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>47272</v>
+        <v>46073</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1319115505306576</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09030479548738922</v>
+        <v>0.09005474907490511</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1882639308965444</v>
+        <v>0.1834887188269585</v>
       </c>
     </row>
     <row r="7">
@@ -2422,19 +2422,19 @@
         <v>150959</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>131370</v>
+        <v>132492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>170887</v>
+        <v>172609</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3849450597993032</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3349915807506127</v>
+        <v>0.3378530923677492</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4357609932533292</v>
+        <v>0.4401517629090907</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>140</v>
@@ -2443,19 +2443,19 @@
         <v>149216</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>129889</v>
+        <v>130343</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>167268</v>
+        <v>167162</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4744724870805353</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4130171563387193</v>
+        <v>0.4144619960920351</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5318746893150774</v>
+        <v>0.5315370489101386</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>283</v>
@@ -2464,19 +2464,19 @@
         <v>300175</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>273510</v>
+        <v>271978</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>326690</v>
+        <v>325085</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4247886522896889</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3870540653319204</v>
+        <v>0.3848859389701677</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.462310231802838</v>
+        <v>0.4600388034620728</v>
       </c>
     </row>
     <row r="9">
@@ -2493,19 +2493,19 @@
         <v>190601</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>169117</v>
+        <v>169874</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>210608</v>
+        <v>212711</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4860316477896955</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4312481948110474</v>
+        <v>0.4331780465061967</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5370485292866372</v>
+        <v>0.5424126786339786</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>113</v>
@@ -2514,19 +2514,19 @@
         <v>124838</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>107036</v>
+        <v>107942</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>143015</v>
+        <v>144127</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3969564866626373</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3403512364075549</v>
+        <v>0.3432322291320113</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4547540802114916</v>
+        <v>0.4582896380753205</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>286</v>
@@ -2535,19 +2535,19 @@
         <v>315439</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>287682</v>
+        <v>288518</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>343147</v>
+        <v>343884</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4463893333756639</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4071090131090433</v>
+        <v>0.4082924451402967</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4855989789330746</v>
+        <v>0.4866426482630605</v>
       </c>
     </row>
     <row r="10">
@@ -2564,19 +2564,19 @@
         <v>50598</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37897</v>
+        <v>36828</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66073</v>
+        <v>65594</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1290232924110013</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09663711442670504</v>
+        <v>0.09391154848169793</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1684852251899487</v>
+        <v>0.1672646161560155</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -2585,19 +2585,19 @@
         <v>40434</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28268</v>
+        <v>29431</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54078</v>
+        <v>54579</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1285710262568274</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08988582913786032</v>
+        <v>0.09358440295524267</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1719570843932665</v>
+        <v>0.1735491991830022</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -2606,19 +2606,19 @@
         <v>91032</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73984</v>
+        <v>72932</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112326</v>
+        <v>111307</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1288220143346472</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1046971538940787</v>
+        <v>0.1032092343850826</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1589562819170493</v>
+        <v>0.1575142683145682</v>
       </c>
     </row>
     <row r="11">
@@ -2710,19 +2710,19 @@
         <v>30016</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21512</v>
+        <v>21311</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40295</v>
+        <v>39875</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.395688210560671</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2835795017816305</v>
+        <v>0.2809276795062391</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5311906884182763</v>
+        <v>0.5256513533638703</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -2731,19 +2731,19 @@
         <v>27950</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20020</v>
+        <v>20148</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37450</v>
+        <v>37556</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3790757136553672</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2715321038363786</v>
+        <v>0.2732580660926</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5079341758764837</v>
+        <v>0.5093718853879493</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -2752,19 +2752,19 @@
         <v>57966</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>45719</v>
+        <v>46662</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>71961</v>
+        <v>71175</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3875000615189267</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3056302381677235</v>
+        <v>0.3119325899868978</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4810588018997952</v>
+        <v>0.4758030876086778</v>
       </c>
     </row>
     <row r="13">
@@ -2781,19 +2781,19 @@
         <v>36446</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26441</v>
+        <v>26711</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46057</v>
+        <v>45538</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4804482063902553</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3485587060729081</v>
+        <v>0.3521141189576316</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6071461931062465</v>
+        <v>0.6003118616409273</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -2802,19 +2802,19 @@
         <v>33636</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24531</v>
+        <v>25099</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42368</v>
+        <v>43128</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.456202737723585</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3327088538195809</v>
+        <v>0.3404121165238624</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5746254512514702</v>
+        <v>0.5849338555950632</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -2823,19 +2823,19 @@
         <v>70082</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57045</v>
+        <v>58071</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>82946</v>
+        <v>84022</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4684978348018485</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3813449062256337</v>
+        <v>0.3882031625263566</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5544909876739565</v>
+        <v>0.5616874414019529</v>
       </c>
     </row>
     <row r="14">
@@ -2852,19 +2852,19 @@
         <v>9396</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4447</v>
+        <v>4118</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17313</v>
+        <v>17428</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1238635830490737</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05861762500809625</v>
+        <v>0.054285111932444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2282231984705691</v>
+        <v>0.2297464237701912</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -2873,19 +2873,19 @@
         <v>12145</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6592</v>
+        <v>6560</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20776</v>
+        <v>19673</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1647215486210478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08940719553658732</v>
+        <v>0.08897212953243856</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2817784435110989</v>
+        <v>0.2668169600976683</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -2894,19 +2894,19 @@
         <v>21541</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13768</v>
+        <v>13156</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33402</v>
+        <v>32107</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1440021036792248</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09204164642890987</v>
+        <v>0.08794695554033372</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2232890347680175</v>
+        <v>0.2146316354679652</v>
       </c>
     </row>
     <row r="15">
@@ -2998,19 +2998,19 @@
         <v>240118</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>215324</v>
+        <v>214993</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>265637</v>
+        <v>266616</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3883224971507675</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3482241995017484</v>
+        <v>0.347689528439841</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4295914522476788</v>
+        <v>0.4311750464879088</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>206</v>
@@ -3019,19 +3019,19 @@
         <v>222549</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>200998</v>
+        <v>201051</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>246460</v>
+        <v>245058</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4551261216259911</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.411052678150856</v>
+        <v>0.4111610251533833</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5040247500504481</v>
+        <v>0.5011592748814391</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>433</v>
@@ -3040,19 +3040,19 @@
         <v>462668</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>430295</v>
+        <v>426307</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>498965</v>
+        <v>493635</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4178221062551054</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3885870657288428</v>
+        <v>0.3849854469407384</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4506012572579677</v>
+        <v>0.4457881142178406</v>
       </c>
     </row>
     <row r="17">
@@ -3069,19 +3069,19 @@
         <v>296895</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>272971</v>
+        <v>268880</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>326170</v>
+        <v>321576</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4801425046373454</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4414528637876705</v>
+        <v>0.4348358567874022</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5274863582284636</v>
+        <v>0.5200563306384619</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>184</v>
@@ -3090,19 +3090,19 @@
         <v>202073</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>178243</v>
+        <v>180045</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>223504</v>
+        <v>223875</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4132522181000173</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3645184995950032</v>
+        <v>0.3682036463983131</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4570802721936963</v>
+        <v>0.4578378688666523</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>455</v>
@@ -3111,19 +3111,19 @@
         <v>498969</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>464961</v>
+        <v>466036</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>531349</v>
+        <v>534782</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4506046266969025</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.419892624846978</v>
+        <v>0.4208637280094703</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4798457050199579</v>
+        <v>0.4829463249795063</v>
       </c>
     </row>
     <row r="18">
@@ -3140,19 +3140,19 @@
         <v>81334</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>63959</v>
+        <v>64659</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>101826</v>
+        <v>101605</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1315349982118871</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.103434729387452</v>
+        <v>0.1045671414740742</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1646744630620441</v>
+        <v>0.1643161111772216</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>59</v>
@@ -3161,19 +3161,19 @@
         <v>64361</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>50674</v>
+        <v>47498</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>82713</v>
+        <v>79183</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1316216602739916</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1036309769762696</v>
+        <v>0.09713631261415327</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1691524556079846</v>
+        <v>0.1619346797863311</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>128</v>
@@ -3182,19 +3182,19 @@
         <v>145695</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>124268</v>
+        <v>124096</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>170607</v>
+        <v>172267</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.131573267047992</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1122225685294622</v>
+        <v>0.1120678066697978</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1540706762924871</v>
+        <v>0.1555694088021893</v>
       </c>
     </row>
     <row r="19">
@@ -3525,19 +3525,19 @@
         <v>16521</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9263</v>
+        <v>9830</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25181</v>
+        <v>24664</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1802901611677296</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1010861207687363</v>
+        <v>0.1072711833681274</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2747973120177435</v>
+        <v>0.2691632521311547</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -3546,19 +3546,19 @@
         <v>14935</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8838</v>
+        <v>9032</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22088</v>
+        <v>22245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2499794302676245</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1479387635867182</v>
+        <v>0.1511795340227267</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3697046367933031</v>
+        <v>0.3723452377306352</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -3567,19 +3567,19 @@
         <v>31455</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22291</v>
+        <v>22416</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42297</v>
+        <v>41599</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2077942788272204</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.147256949094434</v>
+        <v>0.1480780673260724</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2794152145080833</v>
+        <v>0.2748020714061433</v>
       </c>
     </row>
     <row r="5">
@@ -3596,19 +3596,19 @@
         <v>57697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48208</v>
+        <v>47937</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67327</v>
+        <v>66282</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6296538403517836</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5261023629281227</v>
+        <v>0.5231446586171518</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7347450849844736</v>
+        <v>0.7233391859548602</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -3617,19 +3617,19 @@
         <v>32304</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24451</v>
+        <v>24186</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39260</v>
+        <v>39498</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5407032417638733</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4092689560898757</v>
+        <v>0.404833524741979</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6571320907074705</v>
+        <v>0.6611230550002967</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>87</v>
@@ -3638,19 +3638,19 @@
         <v>90001</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>77629</v>
+        <v>77354</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>102438</v>
+        <v>102741</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5945478941847042</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5128220992403272</v>
+        <v>0.5110017335423844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6767067992647822</v>
+        <v>0.6787068468650356</v>
       </c>
     </row>
     <row r="6">
@@ -3667,19 +3667,19 @@
         <v>17415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11061</v>
+        <v>10751</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26217</v>
+        <v>26191</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1900559984804868</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1207051680088426</v>
+        <v>0.1173287017439886</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2861128073324276</v>
+        <v>0.2858285604562567</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -3688,19 +3688,19 @@
         <v>12505</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7347</v>
+        <v>6431</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20886</v>
+        <v>19738</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2093173279685022</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1229760607441514</v>
+        <v>0.107635133450373</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3495967253052581</v>
+        <v>0.3303769095372531</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -3709,19 +3709,19 @@
         <v>29921</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20055</v>
+        <v>20017</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40628</v>
+        <v>41464</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1976578269880754</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.132482895678963</v>
+        <v>0.1322351626970045</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2683867774917282</v>
+        <v>0.2739104420537264</v>
       </c>
     </row>
     <row r="7">
@@ -3813,19 +3813,19 @@
         <v>95223</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>79537</v>
+        <v>79000</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>113205</v>
+        <v>112945</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2802132562491942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2340530896087775</v>
+        <v>0.2324729472410076</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3331280571381073</v>
+        <v>0.3323622956360314</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>94</v>
@@ -3834,19 +3834,19 @@
         <v>97265</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>82389</v>
+        <v>81695</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>113935</v>
+        <v>113834</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3387961764968223</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2869805999442437</v>
+        <v>0.2845612923701674</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.396860143912054</v>
+        <v>0.3965093499021719</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>184</v>
@@ -3855,19 +3855,19 @@
         <v>192488</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>166427</v>
+        <v>170369</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>216839</v>
+        <v>218398</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3070407688514386</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2654699195327034</v>
+        <v>0.2717578593520484</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3458822200881783</v>
+        <v>0.3483695547994023</v>
       </c>
     </row>
     <row r="9">
@@ -3884,19 +3884,19 @@
         <v>178034</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>160000</v>
+        <v>159177</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>195082</v>
+        <v>197124</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5238980333075045</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4708299741380513</v>
+        <v>0.4684081427953271</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5740661508101554</v>
+        <v>0.5800740614590568</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>142</v>
@@ -3905,19 +3905,19 @@
         <v>145583</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>129227</v>
+        <v>129099</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>162580</v>
+        <v>163395</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5070991120596454</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4501270614099179</v>
+        <v>0.4496825732884622</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5663048570766229</v>
+        <v>0.5691410070368302</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>306</v>
@@ -3926,19 +3926,19 @@
         <v>323617</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>297470</v>
+        <v>299604</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>350605</v>
+        <v>350522</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5162051209436949</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.474498660135655</v>
+        <v>0.4779023578386693</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5592545495818251</v>
+        <v>0.5591214944257084</v>
       </c>
     </row>
     <row r="10">
@@ -3955,19 +3955,19 @@
         <v>66568</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53473</v>
+        <v>50623</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82589</v>
+        <v>80527</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1958887104433014</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1573548346159668</v>
+        <v>0.1489671625040053</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2430353235915509</v>
+        <v>0.2369674655282933</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -3976,19 +3976,19 @@
         <v>44242</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32720</v>
+        <v>33616</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57338</v>
+        <v>58095</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1541047114435323</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1139719124738401</v>
+        <v>0.1170916243604087</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1997225979568373</v>
+        <v>0.2023592375457405</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>105</v>
@@ -3997,19 +3997,19 @@
         <v>110810</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91387</v>
+        <v>93051</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130687</v>
+        <v>131534</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1767541102048666</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1457729594157526</v>
+        <v>0.1484267321651391</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2084610723584981</v>
+        <v>0.209811074317013</v>
       </c>
     </row>
     <row r="11">
@@ -4101,19 +4101,19 @@
         <v>18492</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11467</v>
+        <v>11129</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27587</v>
+        <v>27254</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.291386395785161</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1806824988083713</v>
+        <v>0.1753652160679784</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4346973916009545</v>
+        <v>0.4294485607293146</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -4122,19 +4122,19 @@
         <v>11512</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6398</v>
+        <v>6000</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18077</v>
+        <v>18701</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2344881950284595</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1303095563213373</v>
+        <v>0.1222158082127992</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3681932787876483</v>
+        <v>0.3809078007006273</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -4143,19 +4143,19 @@
         <v>30005</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21888</v>
+        <v>20499</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>40220</v>
+        <v>40375</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2665686910433689</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1944588780466893</v>
+        <v>0.1821165830120113</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3573246274793588</v>
+        <v>0.3586990732195349</v>
       </c>
     </row>
     <row r="13">
@@ -4172,19 +4172,19 @@
         <v>34184</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26032</v>
+        <v>25595</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43076</v>
+        <v>42905</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.538642635888972</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4101857701915347</v>
+        <v>0.4033059352863986</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6787639996266644</v>
+        <v>0.6760655595696471</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -4193,19 +4193,19 @@
         <v>29225</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22128</v>
+        <v>21532</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35775</v>
+        <v>35646</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.595264356935983</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4507127081486655</v>
+        <v>0.4385592928785493</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7286786591649994</v>
+        <v>0.726053149440358</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -4214,19 +4214,19 @@
         <v>63409</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52445</v>
+        <v>51140</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73820</v>
+        <v>74193</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5633397464518456</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4659312918016426</v>
+        <v>0.4543361014171724</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6558380264364323</v>
+        <v>0.6591433863871041</v>
       </c>
     </row>
     <row r="14">
@@ -4243,19 +4243,19 @@
         <v>10787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5367</v>
+        <v>5079</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19186</v>
+        <v>18102</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1699709683258671</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08456891269833729</v>
+        <v>0.08003419759729556</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.302312578494985</v>
+        <v>0.285240732408657</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -4264,19 +4264,19 @@
         <v>8358</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3859</v>
+        <v>4152</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14270</v>
+        <v>15858</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1702474480355575</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07859108067368883</v>
+        <v>0.08457496236435677</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2906472917466477</v>
+        <v>0.3229901906365664</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -4285,19 +4285,19 @@
         <v>19145</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12316</v>
+        <v>11877</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28992</v>
+        <v>29599</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1700915625047855</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1094200965156141</v>
+        <v>0.1055210551433324</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2575707464969353</v>
+        <v>0.2629670669453453</v>
       </c>
     </row>
     <row r="15">
@@ -4389,19 +4389,19 @@
         <v>130236</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>109586</v>
+        <v>110654</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>150125</v>
+        <v>152662</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2631454744790566</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.221419894404682</v>
+        <v>0.22357940946517</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3033301039048175</v>
+        <v>0.3084574104092426</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>120</v>
@@ -4410,19 +4410,19 @@
         <v>123712</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>107258</v>
+        <v>106699</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>144273</v>
+        <v>142968</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3124598956219182</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2709010141219299</v>
+        <v>0.269490127773059</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3643918590669208</v>
+        <v>0.3610960623369902</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>241</v>
@@ -4431,19 +4431,19 @@
         <v>253948</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>228876</v>
+        <v>227427</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>283608</v>
+        <v>284031</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2850627476958863</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2569184007803804</v>
+        <v>0.2552913271244833</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3183563372272853</v>
+        <v>0.3188312713282624</v>
       </c>
     </row>
     <row r="17">
@@ -4460,19 +4460,19 @@
         <v>269915</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>249755</v>
+        <v>247365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>294422</v>
+        <v>294752</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5453691276665206</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.504635800192542</v>
+        <v>0.4998064113248974</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5948854692895441</v>
+        <v>0.5955514285143558</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>201</v>
@@ -4481,19 +4481,19 @@
         <v>207111</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>187131</v>
+        <v>186881</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225722</v>
+        <v>226861</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5231023767788805</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4726382277907327</v>
+        <v>0.4720074766064682</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5701070891943606</v>
+        <v>0.5729841424749709</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>452</v>
@@ -4502,19 +4502,19 @@
         <v>477027</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>446536</v>
+        <v>445865</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>506446</v>
+        <v>505958</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5354729055970837</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5012466331472488</v>
+        <v>0.5004933233982495</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5684973037979731</v>
+        <v>0.5679494260686611</v>
       </c>
     </row>
     <row r="18">
@@ -4531,19 +4531,19 @@
         <v>94770</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>76409</v>
+        <v>78325</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>111662</v>
+        <v>113704</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1914853978544228</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1543856354064174</v>
+        <v>0.1582563619448602</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2256149314952751</v>
+        <v>0.2297405648317705</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>62</v>
@@ -4552,19 +4552,19 @@
         <v>65106</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>50252</v>
+        <v>51165</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80787</v>
+        <v>80894</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1644377275992012</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1269208041196315</v>
+        <v>0.1292287651970975</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2040443759647484</v>
+        <v>0.2043133602018349</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>150</v>
@@ -4573,19 +4573,19 @@
         <v>159876</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>136788</v>
+        <v>137474</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>183341</v>
+        <v>183264</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.17946434670703</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1535480710481676</v>
+        <v>0.1543174647521784</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2058038989284507</v>
+        <v>0.2057178219497246</v>
       </c>
     </row>
     <row r="19">
